--- a/documnets/外部設計書_ヨッシーアイランド（三浦）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド（三浦）.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF9827-7632-46A4-85F2-C6B23B243AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05954B0-EAC0-4995-A448-4FFD449B9FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1065" windowWidth="11505" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
-    <sheet name="新規登録ページ" sheetId="3" r:id="rId2"/>
-    <sheet name="管理者ログインページ " sheetId="4" r:id="rId3"/>
-    <sheet name="トップページ（カレンダー）" sheetId="5" r:id="rId4"/>
-    <sheet name="診断ページ" sheetId="9" r:id="rId5"/>
-    <sheet name="診断結果ページ " sheetId="11" r:id="rId6"/>
+    <sheet name="ログインページ" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="新規登録ページ" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="管理者ログインページ " sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="トップページ（カレンダー）" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="診断ページ" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="診断結果ページ " sheetId="11" state="hidden" r:id="rId6"/>
     <sheet name="トップページ（管理者）" sheetId="13" r:id="rId7"/>
     <sheet name="閲覧ページ（管理者）" sheetId="15" r:id="rId8"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="23">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -194,6 +194,20 @@
     <t>DBカラム</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>管理者トップページ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>三浦美帆　</t>
+    <rPh sb="0" eb="4">
+      <t>ミウラミホ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -243,6 +257,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -567,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -621,27 +648,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,9 +692,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,17 +710,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4155,23 +4194,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>168085</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>126064</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83534</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>210108</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154079</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>199158</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EF146E-1D5B-4AF4-9C3C-FF660A6DEC43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790E8FC4-0DA9-481E-B063-2632AC7E44DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,12 +4218,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4370291" y="3263711"/>
-          <a:ext cx="2003052" cy="420221"/>
+          <a:off x="1746079" y="2272247"/>
+          <a:ext cx="3440715" cy="1113458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="12700"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4206,8 +4246,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>健康状態</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>現在の受講者健康状態</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4216,321 +4256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>112055</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>28013</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EB0B9B-EA50-4C14-AAEB-1870A68137BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7956173" y="3361766"/>
-          <a:ext cx="2437281" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード　入力欄</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>140074</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>112057</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7349B2D-1615-45E1-91F1-AA658372291C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2381250" y="4174190"/>
-          <a:ext cx="1372719" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>196103</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>84044</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>186577</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790E8FC4-0DA9-481E-B063-2632AC7E44DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4678456" y="2521322"/>
-          <a:ext cx="1288676" cy="410696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>現在時刻</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>126067</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD481DF-68AC-49E1-878A-354D21D21E7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8562975" y="1812552"/>
-          <a:ext cx="1272988" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>182094</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>98053</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40D51A6-ED60-4966-9DF5-5D42609989B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1582829" y="4972611"/>
-          <a:ext cx="2101105" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>管理者ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>154079</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
+      <xdr:colOff>24192</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>70037</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4545,12 +4280,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4573679" y="1580031"/>
-          <a:ext cx="2125758" cy="507066"/>
+          <a:off x="3626374" y="1467463"/>
+          <a:ext cx="3110398" cy="368264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4573,7 +4309,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル</a:t>
+            <a:t>管理者トップページ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4583,15 +4319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>266137</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>140074</xdr:rowOff>
+      <xdr:colOff>214182</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>79461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>182095</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
+      <xdr:colOff>130140</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4606,8 +4342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8110255" y="5434853"/>
-          <a:ext cx="2157134" cy="350184"/>
+          <a:off x="7972727" y="5984961"/>
+          <a:ext cx="2132686" cy="338978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4644,23 +4380,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>150261</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>84046</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6D1DB7-53C8-42FC-99BA-290DE9DDD022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE70D0D1-CA55-48E0-A648-C0EF7A60B0D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4668,12 +4404,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4370293" y="5350810"/>
-          <a:ext cx="2185149" cy="420221"/>
+          <a:off x="1697182" y="4831773"/>
+          <a:ext cx="3440715" cy="787977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="12700"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4695,9 +4432,203 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>コメントの知らせ</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>お知らせ</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>コメントが〇件来ています</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60614</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176238</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F1170-9458-48D0-A48D-C491F7C1D97A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1723159" y="3714750"/>
+          <a:ext cx="3440715" cy="329045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>過去の結果</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>199159</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="吹き出し: 四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2117756B-FFAF-4DDD-934E-3E6E6BA48663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740977" y="2337954"/>
+          <a:ext cx="2580409" cy="1117023"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61447"/>
+            <a:gd name="adj2" fmla="val -12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>◎の人：　＿＿さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　　＿＿さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　　＿＿さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5600,7 +5531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
@@ -5610,146 +5541,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5886,40 +5817,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -6096,7 +6027,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -6138,7 +6069,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6180,7 +6111,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -6222,7 +6153,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6264,7 +6195,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6306,7 +6237,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -6348,7 +6279,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -6390,7 +6321,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -6432,7 +6363,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -6474,7 +6405,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -6516,7 +6447,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6558,7 +6489,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -6600,7 +6531,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -6642,7 +6573,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6684,7 +6615,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -6726,7 +6657,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -6768,7 +6699,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -6810,7 +6741,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -10232,146 +10163,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -10508,40 +10439,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -10718,7 +10649,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -10760,7 +10691,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -10802,7 +10733,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -10844,7 +10775,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -10886,7 +10817,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -10928,7 +10859,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -10970,7 +10901,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -11012,7 +10943,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -11054,7 +10985,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -11096,7 +11027,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -11138,7 +11069,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -11180,7 +11111,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -11222,7 +11153,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -11264,7 +11195,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -11306,7 +11237,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -11348,7 +11279,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -11390,7 +11321,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -11432,7 +11363,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -14814,6 +14745,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -14821,14 +14759,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14854,146 +14785,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -15130,40 +15061,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -15340,7 +15271,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -15382,7 +15313,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -15424,7 +15355,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -15466,7 +15397,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -15508,7 +15439,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -15550,7 +15481,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -15592,7 +15523,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -15634,7 +15565,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -15676,7 +15607,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -15718,7 +15649,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -15760,7 +15691,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -15802,7 +15733,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -15844,7 +15775,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -15886,7 +15817,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -15928,7 +15859,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -15970,7 +15901,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -16012,7 +15943,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -16054,7 +15985,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -19436,6 +19367,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -19443,14 +19381,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19476,146 +19407,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -19752,40 +19683,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -19962,7 +19893,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -20004,7 +19935,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -20046,7 +19977,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -20088,7 +20019,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -20130,7 +20061,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -20172,7 +20103,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -20214,7 +20145,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -20256,7 +20187,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -20298,7 +20229,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -20340,7 +20271,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -20382,7 +20313,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -20424,7 +20355,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -20466,7 +20397,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -20508,7 +20439,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -20550,7 +20481,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -20592,7 +20523,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -20634,7 +20565,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -20676,7 +20607,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -24058,6 +23989,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -24065,14 +24003,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -24098,146 +24029,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -24374,40 +24305,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -24584,7 +24515,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -24626,7 +24557,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -24668,7 +24599,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -24710,7 +24641,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -24752,7 +24683,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -24794,7 +24725,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -24836,7 +24767,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -24878,7 +24809,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -24920,7 +24851,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -24962,7 +24893,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -25004,7 +24935,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -25046,7 +24977,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -25088,7 +25019,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -25130,7 +25061,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -25172,7 +25103,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -25214,7 +25145,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -25256,7 +25187,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -25298,7 +25229,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -28680,6 +28611,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -28687,14 +28625,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -28720,146 +28651,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28996,40 +28927,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -29206,7 +29137,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -29248,7 +29179,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -29290,7 +29221,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -29332,7 +29263,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -29374,7 +29305,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -29416,7 +29347,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -29458,7 +29389,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -29500,7 +29431,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -29542,7 +29473,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -29584,7 +29515,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -29626,7 +29557,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -29668,7 +29599,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -29710,7 +29641,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -29752,7 +29683,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -29794,7 +29725,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -29836,7 +29767,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -29878,7 +29809,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -29920,7 +29851,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -33302,6 +33233,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -33309,14 +33247,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -33332,8 +33263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4199BA9A-4C56-4159-AD6B-D8973FD2BA5B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33342,146 +33273,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="51">
+        <v>44351</v>
+      </c>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33618,40 +33555,42 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="53">
+        <v>1</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -33707,7 +33646,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -33789,7 +33728,9 @@
       <c r="D12" s="6"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="54">
+        <v>2</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -33828,7 +33769,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -33870,7 +33811,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -33912,7 +33853,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -33954,7 +33895,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -33996,7 +33937,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -34038,7 +33979,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -34080,7 +34021,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -34122,7 +34063,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -34164,7 +34105,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -34206,7 +34147,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -34248,7 +34189,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -34290,7 +34231,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -34332,7 +34273,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -34374,7 +34315,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -34416,7 +34357,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -34458,7 +34399,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -34500,7 +34441,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -34542,40 +34483,40 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="13"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="7"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
@@ -34584,7 +34525,7 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -34617,7 +34558,7 @@
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
+      <c r="AK31" s="7"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
@@ -34626,7 +34567,7 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -34659,7 +34600,7 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
+      <c r="AK32" s="7"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
@@ -34668,7 +34609,7 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -34701,7 +34642,7 @@
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
+      <c r="AK33" s="7"/>
       <c r="AL33" s="9"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
@@ -34710,40 +34651,40 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="9"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="13"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
@@ -36622,7 +36563,9 @@
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="14"/>
+      <c r="B79" s="14">
+        <v>1</v>
+      </c>
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
       <c r="E79" s="17"/>
@@ -36664,7 +36607,9 @@
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="14"/>
+      <c r="B80" s="14">
+        <v>2</v>
+      </c>
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
@@ -36706,7 +36651,9 @@
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
-      <c r="B81" s="14"/>
+      <c r="B81" s="14">
+        <v>3</v>
+      </c>
       <c r="C81" s="15"/>
       <c r="D81" s="16"/>
       <c r="E81" s="17"/>
@@ -36748,7 +36695,9 @@
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
-      <c r="B82" s="14"/>
+      <c r="B82" s="14">
+        <v>4</v>
+      </c>
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
       <c r="E82" s="17"/>
@@ -36790,7 +36739,9 @@
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
-      <c r="B83" s="14"/>
+      <c r="B83" s="14">
+        <v>5</v>
+      </c>
       <c r="C83" s="15"/>
       <c r="D83" s="16"/>
       <c r="E83" s="17"/>
@@ -37924,6 +37875,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -37931,14 +37889,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37964,146 +37915,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -38240,40 +38191,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -38450,7 +38401,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -38492,7 +38443,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -38534,7 +38485,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -38576,7 +38527,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -38618,7 +38569,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -38660,7 +38611,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -38702,7 +38653,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -38744,7 +38695,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -38786,7 +38737,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -38828,7 +38779,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -38870,7 +38821,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -38912,7 +38863,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -38954,7 +38905,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -38996,7 +38947,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -39038,7 +38989,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -39080,7 +39031,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -39122,7 +39073,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -39164,7 +39115,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -42546,6 +42497,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -42553,14 +42511,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documnets/外部設計書_ヨッシーアイランド（三浦）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド（三浦）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05954B0-EAC0-4995-A448-4FFD449B9FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1B09B3-783A-4737-BC0A-6AB7B0EB8E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="24">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -205,6 +205,19 @@
     <t>三浦美帆　</t>
     <rPh sb="0" eb="4">
       <t>ミウラミホ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>管理者のログイン後、最初のページ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイショ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -659,6 +672,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,15 +758,6 @@
     </xf>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4194,16 +4207,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>83534</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>176747</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14262</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>199158</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>147205</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>147205</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4218,8 +4231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746079" y="2272247"/>
-          <a:ext cx="3440715" cy="1113458"/>
+          <a:off x="1953898" y="2073089"/>
+          <a:ext cx="3458034" cy="1520434"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4245,8 +4258,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
             <a:t>現在の受講者健康状態</a:t>
           </a:r>
         </a:p>
@@ -4381,15 +4398,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:colOff>251114</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>150261</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4404,8 +4421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1697182" y="4831773"/>
-          <a:ext cx="3440715" cy="787977"/>
+          <a:off x="1913659" y="5152159"/>
+          <a:ext cx="3440715" cy="978477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4441,7 +4458,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>コメントが〇件来ています</a:t>
+            <a:t> コメントが〇件来ています</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4451,15 +4468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>60614</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>233796</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>176238</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>72329</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4474,7 +4491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1723159" y="3714750"/>
+          <a:off x="1896341" y="3870613"/>
           <a:ext cx="3440715" cy="329045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4502,10 +4519,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
             <a:t>過去の結果</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5541,146 +5558,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -10163,146 +10180,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -14785,146 +14802,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -19407,146 +19424,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -24029,146 +24046,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28651,146 +28668,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33263,8 +33280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4199BA9A-4C56-4159-AD6B-D8973FD2BA5B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33273,152 +33290,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="51">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="54">
         <v>44351</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33564,7 +33583,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="53">
+      <c r="M8" s="27">
         <v>1</v>
       </c>
       <c r="N8" s="22"/>
@@ -33646,7 +33665,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -33728,7 +33747,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="54">
+      <c r="G12" s="28">
         <v>2</v>
       </c>
       <c r="H12" s="9"/>
@@ -37915,146 +37934,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
